--- a/RRSS/Programación/Efemérides DI.xlsx
+++ b/RRSS/Programación/Efemérides DI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DATA INTELLIGENCE\Difusión y RRSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\RRSS\Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1749F-5532-4700-9DC8-3B85442D6AD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5430656-6381-4D64-86BA-68D7484D4E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40890" yWindow="2430" windowWidth="14400" windowHeight="7455" xr2:uid="{2D63C19D-3149-4871-A533-8F0FAAFC0985}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2D63C19D-3149-4871-A533-8F0FAAFC0985}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$C$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="1437">
   <si>
     <t>1 – Año Nuevo</t>
   </si>
@@ -4343,6 +4343,12 @@
   </si>
   <si>
     <t>Producto</t>
+  </si>
+  <si>
+    <t>Día del Cancer del Cuello Cervicouterino</t>
+  </si>
+  <si>
+    <t>https://www.ssvq.cl/ssvq/noticias/dia-mundial-de-la-prevencion-del-cancer-de-cuello-uterino#:~:text=D%C3%ADa%20Mundial%20de%20la%20Prevenci%C3%B3n%20del%20C%C3%A1ncer%20de,ginecol%C3%B3gicos%20para%20evitar%20enfermedades,%20entre%20ellas,%20el%20c%C3%A1ncer</t>
   </si>
 </sst>
 </file>
@@ -4887,13 +4893,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4910,7 +4916,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -4979,10 +4985,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mmm"/>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5360,11 +5366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334DA398-9ADC-4A0E-BC4A-AE74F4048C3C}">
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5373,7 +5379,7 @@
     <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="49.26953125" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
@@ -7831,7 +7837,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="19"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="49" t="s">
         <v>37</v>
       </c>
@@ -7863,7 +7869,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="19"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="49" t="s">
         <v>37</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>44278</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="2">IF(WEEKDAY(B66,2)=1,"Lunes",IF(WEEKDAY(B66,2)=2,"Martes",IF(WEEKDAY(B66,2)=3,"Miércoles",IF(WEEKDAY(B66,2)=4,"Jueves",IF(WEEKDAY(B66,2)=5,"Viernes",IF(WEEKDAY(B66,2)=6,"Sábado","Domingo"))))))</f>
+        <f t="shared" ref="C66:C88" si="2">IF(WEEKDAY(B66,2)=1,"Lunes",IF(WEEKDAY(B66,2)=2,"Martes",IF(WEEKDAY(B66,2)=3,"Miércoles",IF(WEEKDAY(B66,2)=4,"Jueves",IF(WEEKDAY(B66,2)=5,"Viernes",IF(WEEKDAY(B66,2)=6,"Sábado","Domingo"))))))</f>
         <v>Martes</v>
       </c>
       <c r="D66" s="32" t="s">
@@ -7911,7 +7917,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="49" t="s">
         <v>37</v>
       </c>
@@ -7956,7 +7962,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="49" t="s">
         <v>37</v>
       </c>
@@ -7988,7 +7994,7 @@
       <c r="N68" s="19"/>
       <c r="O68" s="19"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="49" t="s">
         <v>37</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="49" t="s">
         <v>37</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="49" t="s">
         <v>37</v>
       </c>
@@ -8107,7 +8113,7 @@
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="49" t="s">
         <v>37</v>
       </c>
@@ -8136,7 +8142,7 @@
       <c r="N72" s="19"/>
       <c r="O72" s="19"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="49" t="s">
         <v>37</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="49" t="s">
         <v>37</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="49" t="s">
         <v>37</v>
       </c>
@@ -8271,7 +8277,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="49" t="s">
         <v>37</v>
       </c>
@@ -8303,52 +8309,29 @@
       <c r="N76" s="19"/>
       <c r="O76" s="19"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A77" s="49" t="s">
-        <v>37</v>
-      </c>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="49"/>
       <c r="B77" s="31">
-        <v>44282</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="2"/>
-        <v>Sábado</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>1413</v>
+        <v>44281</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>1435</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="M77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="N77" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="O77" s="19" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+        <v>1436</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="49" t="s">
         <v>37</v>
       </c>
@@ -8359,11 +8342,11 @@
         <f t="shared" si="2"/>
         <v>Sábado</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>1201</v>
+      <c r="D78" s="32" t="s">
+        <v>1413</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>1390</v>
+        <v>1414</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>828</v>
@@ -8393,7 +8376,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="49" t="s">
         <v>37</v>
       </c>
@@ -8405,154 +8388,166 @@
         <v>Sábado</v>
       </c>
       <c r="D79" s="19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="L79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="M79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="O79" s="19" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="31">
+        <v>44282</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>Sábado</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>1202</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E80" s="17" t="s">
         <v>1391</v>
       </c>
-      <c r="G79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="J79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="K79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="L79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="M79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="N79" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="O79" s="19" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="50" t="s">
+      <c r="G80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="M80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="O80" s="19" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="39">
+      <c r="B81" s="39">
         <v>44283</v>
       </c>
-      <c r="C80" s="40" t="str">
+      <c r="C81" s="40" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D81" s="41" t="s">
         <v>1203</v>
       </c>
-      <c r="E80" s="42" t="s">
+      <c r="E81" s="42" t="s">
         <v>1392</v>
       </c>
-      <c r="F80" s="42" t="s">
+      <c r="F81" s="42" t="s">
         <v>1393</v>
       </c>
-      <c r="G80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="H80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="I80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="J80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="K80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="L80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="M80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="N80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="O80" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
+      <c r="G81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="J81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="L81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="M81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="N81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="O81" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A82" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="34">
+      <c r="B82" s="34">
         <v>44284</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="2"/>
         <v>Lunes</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>1204</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E82" s="17" t="s">
         <v>1394</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F82" s="17" t="s">
         <v>1395</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A82" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="35">
-        <v>44285</v>
-      </c>
-      <c r="C82" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Martes</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="51" t="s">
@@ -8565,40 +8560,24 @@
         <f t="shared" si="2"/>
         <v>Martes</v>
       </c>
-      <c r="D83" s="33" t="s">
-        <v>1415</v>
+      <c r="D83" s="22" t="s">
+        <v>1429</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="F83" s="21"/>
-      <c r="G83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="J83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="K83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>828</v>
-      </c>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
       <c r="M83" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="N83" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="O83" s="22" t="s">
-        <v>828</v>
-      </c>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
@@ -8608,32 +8587,46 @@
         <v>37</v>
       </c>
       <c r="B84" s="35">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="C84" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Miércoles</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>1431</v>
+        <v>Martes</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>1415</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
+        <v>1416</v>
+      </c>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>828</v>
+      </c>
       <c r="M84" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
+      <c r="N84" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="O84" s="22" t="s">
+        <v>828</v>
+      </c>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
       <c r="R84" s="21"/>
@@ -8649,40 +8642,26 @@
         <f t="shared" si="2"/>
         <v>Miércoles</v>
       </c>
-      <c r="D85" s="33" t="s">
-        <v>1417</v>
+      <c r="D85" s="22" t="s">
+        <v>1431</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="J85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="K85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>828</v>
-      </c>
+        <v>1432</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
       <c r="M85" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="N85" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="O85" s="22" t="s">
-        <v>828</v>
-      </c>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
@@ -8698,11 +8677,11 @@
         <f t="shared" si="2"/>
         <v>Miércoles</v>
       </c>
-      <c r="D86" s="22" t="s">
-        <v>1419</v>
+      <c r="D86" s="33" t="s">
+        <v>1417</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="22" t="s">
@@ -8736,83 +8715,117 @@
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
     </row>
-    <row r="87" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="52" t="s">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A87" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="35">
         <v>44286</v>
       </c>
-      <c r="C87" s="16" t="str">
+      <c r="C87" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Miércoles</v>
       </c>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="O87" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+    </row>
+    <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="36">
+        <v>44286</v>
+      </c>
+      <c r="C88" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>Miércoles</v>
+      </c>
+      <c r="D88" s="37" t="s">
         <v>1205</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E88" s="18" t="s">
         <v>1396</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="J87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="K87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="L87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="M87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="N87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="O87" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-    </row>
-    <row r="88" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="34">
-        <v>44287</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" ref="C88:C151" si="3">IF(WEEKDAY(B88,2)=1,"Lunes",IF(WEEKDAY(B88,2)=2,"Martes",IF(WEEKDAY(B88,2)=3,"Miércoles",IF(WEEKDAY(B88,2)=4,"Jueves",IF(WEEKDAY(B88,2)=5,"Viernes",IF(WEEKDAY(B88,2)=6,"Sábado","Domingo"))))))</f>
-        <v>Jueves</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F88" s="16"/>
+      <c r="G88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="L88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="N88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="O88" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A89" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B89" s="34">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="3"/>
-        <v>Viernes</v>
+        <f t="shared" ref="C89:C152" si="3">IF(WEEKDAY(B89,2)=1,"Lunes",IF(WEEKDAY(B89,2)=2,"Martes",IF(WEEKDAY(B89,2)=3,"Miércoles",IF(WEEKDAY(B89,2)=4,"Jueves",IF(WEEKDAY(B89,2)=5,"Viernes",IF(WEEKDAY(B89,2)=6,"Sábado","Domingo"))))))</f>
+        <v>Jueves</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
@@ -8827,7 +8840,7 @@
         <v>Viernes</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
@@ -8842,7 +8855,7 @@
         <v>Viernes</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
@@ -8856,8 +8869,8 @@
         <f t="shared" si="3"/>
         <v>Viernes</v>
       </c>
-      <c r="D92" s="38" t="s">
-        <v>1228</v>
+      <c r="D92" s="19" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
@@ -8865,14 +8878,14 @@
         <v>64</v>
       </c>
       <c r="B93" s="34">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>Sábado</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>1229</v>
+        <v>Viernes</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
@@ -8880,14 +8893,14 @@
         <v>64</v>
       </c>
       <c r="B94" s="34">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>Domingo</v>
+        <v>Sábado</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
@@ -8902,7 +8915,7 @@
         <v>Domingo</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
@@ -8916,8 +8929,8 @@
         <f t="shared" si="3"/>
         <v>Domingo</v>
       </c>
-      <c r="D96" s="38" t="s">
-        <v>1232</v>
+      <c r="D96" s="19" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -8932,55 +8945,55 @@
         <v>Domingo</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="R97" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="54" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="46">
+      <c r="B98" s="34">
         <v>44290</v>
       </c>
-      <c r="C98" s="40" t="str">
+      <c r="C98" t="str">
         <f t="shared" si="3"/>
         <v>Domingo</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" s="38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="46">
+        <v>44290</v>
+      </c>
+      <c r="C99" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Domingo</v>
+      </c>
+      <c r="D99" s="41" t="s">
         <v>1234</v>
       </c>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A99" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="1">
-        <v>44291</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="3"/>
-        <v>Lunes</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>1235</v>
-      </c>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="53" t="s">
@@ -8994,7 +9007,7 @@
         <v>Lunes</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
@@ -9009,7 +9022,7 @@
         <v>Lunes</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
@@ -9024,7 +9037,7 @@
         <v>Lunes</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
@@ -9032,14 +9045,14 @@
         <v>64</v>
       </c>
       <c r="B103" s="1">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>Martes</v>
+        <v>Lunes</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
@@ -9054,7 +9067,7 @@
         <v>Martes</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
@@ -9069,7 +9082,7 @@
         <v>Martes</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
@@ -9077,14 +9090,14 @@
         <v>64</v>
       </c>
       <c r="B106" s="1">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>Miércoles</v>
+        <v>Martes</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
@@ -9099,7 +9112,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
@@ -9114,7 +9127,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
@@ -9122,14 +9135,14 @@
         <v>64</v>
       </c>
       <c r="B109" s="1">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>Jueves</v>
+        <v>Miércoles</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
@@ -9144,7 +9157,7 @@
         <v>Jueves</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
@@ -9159,7 +9172,7 @@
         <v>Jueves</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
@@ -9167,14 +9180,14 @@
         <v>64</v>
       </c>
       <c r="B112" s="1">
-        <v>44296</v>
+        <v>44294</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>Sábado</v>
+        <v>Jueves</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.35">
@@ -9189,52 +9202,52 @@
         <v>Sábado</v>
       </c>
       <c r="D113" s="19" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A114" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>Sábado</v>
+      </c>
+      <c r="D114" s="19" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="54" t="s">
+    <row r="115" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B114" s="47">
+      <c r="B115" s="47">
         <v>44297</v>
       </c>
-      <c r="C114" s="40" t="str">
+      <c r="C115" s="40" t="str">
         <f t="shared" si="3"/>
         <v>Domingo</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D115" s="41" t="s">
         <v>1250</v>
       </c>
-      <c r="E114" s="40"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="40"/>
-      <c r="N114" s="40"/>
-      <c r="O114" s="40"/>
-      <c r="P114" s="40"/>
-      <c r="Q114" s="40"/>
-      <c r="R114" s="40"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A115" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="1">
-        <v>44298</v>
-      </c>
-      <c r="C115" t="str">
-        <f t="shared" si="3"/>
-        <v>Lunes</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>1251</v>
-      </c>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="40"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="53" t="s">
@@ -9248,7 +9261,7 @@
         <v>Lunes</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.35">
@@ -9256,14 +9269,14 @@
         <v>64</v>
       </c>
       <c r="B117" s="1">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>Martes</v>
+        <v>Lunes</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.35">
@@ -9271,14 +9284,14 @@
         <v>64</v>
       </c>
       <c r="B118" s="1">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>Miércoles</v>
+        <v>Martes</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.35">
@@ -9293,7 +9306,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.35">
@@ -9308,7 +9321,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.35">
@@ -9323,7 +9336,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.35">
@@ -9338,7 +9351,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.35">
@@ -9346,14 +9359,14 @@
         <v>64</v>
       </c>
       <c r="B123" s="1">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>Jueves</v>
+        <v>Miércoles</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.35">
@@ -9368,7 +9381,7 @@
         <v>Jueves</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.35">
@@ -9383,7 +9396,7 @@
         <v>Jueves</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.35">
@@ -9391,14 +9404,14 @@
         <v>64</v>
       </c>
       <c r="B126" s="1">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>Viernes</v>
+        <v>Jueves</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.35">
@@ -9413,7 +9426,7 @@
         <v>Viernes</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.35">
@@ -9428,7 +9441,7 @@
         <v>Viernes</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.35">
@@ -9436,14 +9449,14 @@
         <v>64</v>
       </c>
       <c r="B129" s="1">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>Sábado</v>
+        <v>Viernes</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.35">
@@ -9458,7 +9471,7 @@
         <v>Sábado</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.35">
@@ -9466,59 +9479,59 @@
         <v>64</v>
       </c>
       <c r="B131" s="1">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="3"/>
-        <v>Domingo</v>
+        <v>Sábado</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="54" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A132" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B132" s="47">
+      <c r="B132" s="1">
         <v>44304</v>
       </c>
-      <c r="C132" s="40" t="str">
+      <c r="C132" t="str">
         <f t="shared" si="3"/>
         <v>Domingo</v>
       </c>
-      <c r="D132" s="41" t="s">
+      <c r="D132" s="19" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" s="47">
+        <v>44304</v>
+      </c>
+      <c r="C133" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>Domingo</v>
+      </c>
+      <c r="D133" s="41" t="s">
         <v>1256</v>
       </c>
-      <c r="E132" s="40"/>
-      <c r="F132" s="40"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="40"/>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="40"/>
-      <c r="N132" s="40"/>
-      <c r="O132" s="40"/>
-      <c r="P132" s="40"/>
-      <c r="Q132" s="40"/>
-      <c r="R132" s="40"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A133" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B133" s="1">
-        <v>44305</v>
-      </c>
-      <c r="C133" t="str">
-        <f t="shared" si="3"/>
-        <v>Lunes</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>1268</v>
-      </c>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="40"/>
+      <c r="O133" s="40"/>
+      <c r="P133" s="40"/>
+      <c r="Q133" s="40"/>
+      <c r="R133" s="40"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="53" t="s">
@@ -9532,7 +9545,7 @@
         <v>Lunes</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.35">
@@ -9540,11 +9553,11 @@
         <v>64</v>
       </c>
       <c r="B135" s="1">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="3"/>
-        <v>Martes</v>
+        <v>Lunes</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>1269</v>
@@ -9555,14 +9568,14 @@
         <v>64</v>
       </c>
       <c r="B136" s="1">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="3"/>
-        <v>Miércoles</v>
+        <v>Martes</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.35">
@@ -9577,7 +9590,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.35">
@@ -9592,7 +9605,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.35">
@@ -9600,14 +9613,14 @@
         <v>64</v>
       </c>
       <c r="B139" s="1">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="3"/>
-        <v>Jueves</v>
+        <v>Miércoles</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
@@ -9622,7 +9635,7 @@
         <v>Jueves</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.35">
@@ -9637,7 +9650,7 @@
         <v>Jueves</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.35">
@@ -9645,14 +9658,14 @@
         <v>64</v>
       </c>
       <c r="B142" s="1">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="3"/>
-        <v>Viernes</v>
+        <v>Jueves</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.35">
@@ -9667,7 +9680,7 @@
         <v>Viernes</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.35">
@@ -9682,7 +9695,7 @@
         <v>Viernes</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.35">
@@ -9697,7 +9710,7 @@
         <v>Viernes</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.35">
@@ -9705,14 +9718,14 @@
         <v>64</v>
       </c>
       <c r="B146" s="1">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="3"/>
-        <v>Sábado</v>
+        <v>Viernes</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.35">
@@ -9727,7 +9740,7 @@
         <v>Sábado</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.35">
@@ -9742,7 +9755,7 @@
         <v>Sábado</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.35">
@@ -9757,7 +9770,7 @@
         <v>Sábado</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.35">
@@ -9765,14 +9778,14 @@
         <v>64</v>
       </c>
       <c r="B150" s="1">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="3"/>
-        <v>Domingo</v>
+        <v>Sábado</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.35">
@@ -9787,7 +9800,7 @@
         <v>Domingo</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.35">
@@ -9798,11 +9811,11 @@
         <v>44311</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" ref="C152:C170" si="4">IF(WEEKDAY(B152,2)=1,"Lunes",IF(WEEKDAY(B152,2)=2,"Martes",IF(WEEKDAY(B152,2)=3,"Miércoles",IF(WEEKDAY(B152,2)=4,"Jueves",IF(WEEKDAY(B152,2)=5,"Viernes",IF(WEEKDAY(B152,2)=6,"Sábado","Domingo"))))))</f>
+        <f t="shared" si="3"/>
         <v>Domingo</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.35">
@@ -9813,11 +9826,11 @@
         <v>44311</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C153:C171" si="4">IF(WEEKDAY(B153,2)=1,"Lunes",IF(WEEKDAY(B153,2)=2,"Martes",IF(WEEKDAY(B153,2)=3,"Miércoles",IF(WEEKDAY(B153,2)=4,"Jueves",IF(WEEKDAY(B153,2)=5,"Viernes",IF(WEEKDAY(B153,2)=6,"Sábado","Domingo"))))))</f>
         <v>Domingo</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.35">
@@ -9832,52 +9845,52 @@
         <v>Domingo</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="54" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A155" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B155" s="47">
+      <c r="B155" s="1">
         <v>44311</v>
       </c>
-      <c r="C155" s="40" t="str">
+      <c r="C155" t="str">
         <f t="shared" si="4"/>
         <v>Domingo</v>
       </c>
-      <c r="D155" s="41" t="s">
+      <c r="D155" s="19" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" s="47">
+        <v>44311</v>
+      </c>
+      <c r="C156" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>Domingo</v>
+      </c>
+      <c r="D156" s="41" t="s">
         <v>1289</v>
       </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
-      <c r="G155" s="40"/>
-      <c r="H155" s="40"/>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="40"/>
-      <c r="L155" s="40"/>
-      <c r="M155" s="40"/>
-      <c r="N155" s="40"/>
-      <c r="O155" s="40"/>
-      <c r="P155" s="40"/>
-      <c r="Q155" s="40"/>
-      <c r="R155" s="40"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A156" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B156" s="1">
-        <v>44312</v>
-      </c>
-      <c r="C156" t="str">
-        <f t="shared" si="4"/>
-        <v>Lunes</v>
-      </c>
-      <c r="D156" s="19" t="s">
-        <v>1290</v>
-      </c>
+      <c r="E156" s="40"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="40"/>
+      <c r="N156" s="40"/>
+      <c r="O156" s="40"/>
+      <c r="P156" s="40"/>
+      <c r="Q156" s="40"/>
+      <c r="R156" s="40"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="53" t="s">
@@ -9891,7 +9904,7 @@
         <v>Lunes</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.35">
@@ -9906,7 +9919,7 @@
         <v>Lunes</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
@@ -9921,7 +9934,7 @@
         <v>Lunes</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
@@ -9929,14 +9942,14 @@
         <v>64</v>
       </c>
       <c r="B160" s="1">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="4"/>
-        <v>Martes</v>
+        <v>Lunes</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -9951,7 +9964,7 @@
         <v>Martes</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -9966,7 +9979,7 @@
         <v>Martes</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -9981,7 +9994,7 @@
         <v>Martes</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -9989,14 +10002,14 @@
         <v>64</v>
       </c>
       <c r="B164" s="1">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="4"/>
-        <v>Miércoles</v>
+        <v>Martes</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -10011,7 +10024,7 @@
         <v>Miércoles</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -10019,14 +10032,14 @@
         <v>64</v>
       </c>
       <c r="B166" s="1">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="4"/>
-        <v>Jueves</v>
+        <v>Miércoles</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -10034,14 +10047,14 @@
         <v>64</v>
       </c>
       <c r="B167" s="1">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="4"/>
-        <v>Viernes</v>
+        <v>Jueves</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -10056,7 +10069,7 @@
         <v>Viernes</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -10071,7 +10084,7 @@
         <v>Viernes</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -10086,12 +10099,27 @@
         <v>Viernes</v>
       </c>
       <c r="D170" s="19" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44316</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="4"/>
+        <v>Viernes</v>
+      </c>
+      <c r="D171" s="19" t="s">
         <v>1304</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R170">
-    <sortCondition ref="B88:B170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R171">
+    <sortCondition ref="B89:B171"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/RRSS/Programación/Efemérides DI.xlsx
+++ b/RRSS/Programación/Efemérides DI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\RRSS\Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5430656-6381-4D64-86BA-68D7484D4E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE23ADC-0C03-4E9C-BBCB-449AF58F9C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2D63C19D-3149-4871-A533-8F0FAAFC0985}"/>
   </bookViews>
@@ -4646,6 +4646,104 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
@@ -4892,104 +4990,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="5"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5007,7 +5007,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47DFA493-DFB3-4424-8546-CD09A1ECFB45}" name="Tabla1" displayName="Tabla1" ref="E2:F422" totalsRowShown="0">
   <autoFilter ref="E2:F422" xr:uid="{A6413059-E29A-4C56-A30D-1CC0362E84FE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5C38CCC4-98EA-464B-A609-9E254BEF5D48}" name="Mes" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{5C38CCC4-98EA-464B-A609-9E254BEF5D48}" name="Mes" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B9644A7A-2739-44BF-88CE-63259F6132D2}" name="Evento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5018,7 +5018,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88769B8C-1F11-4C66-A8FE-D3F1D2F0074C}" name="Tabla2" displayName="Tabla2" ref="A2:B552">
   <autoFilter ref="A2:B552" xr:uid="{992AB8ED-2FEF-45FD-B4AF-F0C0D5C699D2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B4534E7-2313-4D37-B387-5FAC82079FFD}" name="Mes" totalsRowLabel="Total" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{4B4534E7-2313-4D37-B387-5FAC82079FFD}" name="Mes" totalsRowLabel="Total" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E9A47AAA-E5C9-4719-AF58-E19164581E6D}" name="Evento" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5026,11 +5026,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{913690A9-AE0D-421F-BA4C-D1A3D4F611C0}" name="Tabla7" displayName="Tabla7" ref="C2:D474" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{913690A9-AE0D-421F-BA4C-D1A3D4F611C0}" name="Tabla7" displayName="Tabla7" ref="C2:D474" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="C2:D474" xr:uid="{9F39A28A-F9EC-4D46-8004-14AD961ADB87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9F9E881D-0967-4E02-BEA8-124C41074DAB}" name="Mes" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{06B12DD8-C058-47DC-8EE6-A076E9BDF466}" name="Evento" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{9F9E881D-0967-4E02-BEA8-124C41074DAB}" name="Mes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{06B12DD8-C058-47DC-8EE6-A076E9BDF466}" name="Evento" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5040,7 +5040,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{78D0E3D6-5241-4392-AEBA-0D4D8D976C0E}" name="Tabla19" displayName="Tabla19" ref="G2:H442" totalsRowShown="0">
   <autoFilter ref="G2:H442" xr:uid="{AB8AB597-5150-4C59-8BEC-B13D724F426A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{634417B1-9007-40BB-A9FB-BDA2DCF6F926}" name="Mes" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{634417B1-9007-40BB-A9FB-BDA2DCF6F926}" name="Mes" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{EC85258E-7745-444B-8F15-D6C8A6F9EEF7}" name="Evento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5051,7 +5051,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{73A0CBAC-488C-4E10-AE36-0080BE467F07}" name="Tabla110" displayName="Tabla110" ref="I2:J421" totalsRowShown="0">
   <autoFilter ref="I2:J421" xr:uid="{EF7B3DA7-75BE-4A9B-9243-413BD03DB5BF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CFB80887-03FE-4A2A-8C06-3E7B207E2501}" name="Mes" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{CFB80887-03FE-4A2A-8C06-3E7B207E2501}" name="Mes" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{27F7EFB8-D941-4333-A388-C97C8D5CAD54}" name="Evento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5062,7 +5062,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{75CE9AD4-FE5C-4212-AF68-11BF5FEF9960}" name="Tabla111" displayName="Tabla111" ref="K2:L395" totalsRowShown="0">
   <autoFilter ref="K2:L395" xr:uid="{7C31C7ED-EDCA-4FC8-9C85-CE61139CA09B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{67E295DE-7F98-41B2-B1BD-B0DC7A29F344}" name="Mes" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{67E295DE-7F98-41B2-B1BD-B0DC7A29F344}" name="Mes" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4EF88290-A194-49CF-BAC5-D2DEDC668710}" name="Evento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5369,8 +5369,8 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27295,68 +27295,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C474">
-    <cfRule type="timePeriod" dxfId="17" priority="13" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="28" priority="13" timePeriod="today">
       <formula>FLOOR(C3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="16" priority="14" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="27" priority="14" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(C3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(C3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="15" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="26" priority="15" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(C3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(C3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E422">
-    <cfRule type="timePeriod" dxfId="14" priority="16" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="25" priority="16" timePeriod="today">
       <formula>FLOOR(E3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="13" priority="17" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="24" priority="17" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(E3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(E3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="12" priority="18" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="23" priority="18" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(E3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(E3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A552">
-    <cfRule type="timePeriod" dxfId="11" priority="10" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="22" priority="10" timePeriod="today">
       <formula>FLOOR(A3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="11" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="21" priority="11" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(A3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(A3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="12" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="20" priority="12" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(A3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(A3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G442">
-    <cfRule type="timePeriod" dxfId="8" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="19" priority="7" timePeriod="today">
       <formula>FLOOR(G3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="7" priority="8" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="18" priority="8" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(G3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(G3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="9" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="17" priority="9" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(G3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(G3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I421">
-    <cfRule type="timePeriod" dxfId="5" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="16" priority="4" timePeriod="today">
       <formula>FLOOR(I3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="15" priority="5" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(I3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(I3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="3" priority="6" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="14" priority="6" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(I3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(I3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K395">
-    <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="13" priority="1" timePeriod="today">
       <formula>FLOOR(K3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="thisWeek">
+    <cfRule type="timePeriod" dxfId="12" priority="2" timePeriod="thisWeek">
       <formula>AND(TODAY()-ROUNDDOWN(K3,0)&lt;=WEEKDAY(TODAY())-1,ROUNDDOWN(K3,0)-TODAY()&lt;=7-WEEKDAY(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="3" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="11" priority="3" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(K3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(K3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
   </conditionalFormatting>
